--- a/src/Entrega2.xlsx
+++ b/src/Entrega2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\OneDrive\Documentos\UBA\1ero 2020\Numerico\TPs\entrega-2\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48041B45-3DCB-431B-80FF-A8DCB5E11575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84CD10-F7C4-4FCA-AB10-6E8AA117E11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
   </bookViews>
@@ -424,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -456,12 +462,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,10 +1117,10 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>103</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>410</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>286</c:v>
@@ -1179,13 +1186,13 @@
                   <c:v>2599</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4376</c:v>
+                  <c:v>5605</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7578</c:v>
+                  <c:v>5605</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4861</c:v>
+                  <c:v>5605</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>2116</c:v>
@@ -1230,16 +1237,16 @@
                   <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2641</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>405</c:v>
+                  <c:v>1523</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2569</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>785</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>2051</c:v>
@@ -2152,7 +2159,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 1">
+        <xdr:cNvPr id="20" name="Tabla">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721B9782-D9FB-423E-B211-D6FFA1D641F9}"/>
@@ -2475,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD16D5C-3915-4797-AD42-A46A7196562F}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3656,10 +3663,12 @@
         <v>69</v>
       </c>
       <c r="E69" s="1">
+        <v>256</v>
+      </c>
+      <c r="F69" s="2">
         <v>103</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -3675,10 +3684,12 @@
         <v>70</v>
       </c>
       <c r="E70" s="1">
+        <v>257</v>
+      </c>
+      <c r="F70" s="2">
         <v>410</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -3696,7 +3707,7 @@
       <c r="E71" s="1">
         <v>286</v>
       </c>
-      <c r="G71" s="3"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -4052,9 +4063,11 @@
         <v>92</v>
       </c>
       <c r="E92" s="1">
+        <v>5605</v>
+      </c>
+      <c r="F92" s="3">
         <v>4376</v>
       </c>
-      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -4070,9 +4083,11 @@
         <v>93</v>
       </c>
       <c r="E93" s="1">
+        <v>5605</v>
+      </c>
+      <c r="F93" s="3">
         <v>7578</v>
       </c>
-      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
@@ -4088,9 +4103,11 @@
         <v>94</v>
       </c>
       <c r="E94" s="1">
+        <v>5605</v>
+      </c>
+      <c r="F94" s="3">
         <v>4861</v>
       </c>
-      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -4344,9 +4361,11 @@
         <v>109</v>
       </c>
       <c r="E109" s="1">
+        <v>1523</v>
+      </c>
+      <c r="F109" s="3">
         <v>2641</v>
       </c>
-      <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -4362,9 +4381,11 @@
         <v>110</v>
       </c>
       <c r="E110" s="1">
+        <v>1523</v>
+      </c>
+      <c r="F110" s="3">
         <v>405</v>
       </c>
-      <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -4380,9 +4401,11 @@
         <v>111</v>
       </c>
       <c r="E111" s="1">
+        <v>1677</v>
+      </c>
+      <c r="F111" s="4">
         <v>2569</v>
       </c>
-      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -4398,9 +4421,11 @@
         <v>112</v>
       </c>
       <c r="E112" s="1">
+        <v>1677</v>
+      </c>
+      <c r="F112" s="4">
         <v>785</v>
       </c>
-      <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">

--- a/src/Entrega2.xlsx
+++ b/src/Entrega2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\OneDrive\Documentos\UBA\1ero 2020\Numerico\TPs\entrega-2\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84CD10-F7C4-4FCA-AB10-6E8AA117E11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95673FD-B2D6-4CC4-BD9A-A32E8222AC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
   </bookViews>
@@ -913,91 +913,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -1009,79 +1009,79 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2</c:v>
@@ -2482,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD16D5C-3915-4797-AD42-A46A7196562F}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2728,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2745,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2762,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2779,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,7 +2796,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2847,7 +2847,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2864,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2898,7 +2898,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2983,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3051,7 +3051,7 @@
         <v>33</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>34</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
         <v>36</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3119,7 +3119,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3187,7 +3187,7 @@
         <v>41</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3204,7 +3204,7 @@
         <v>42</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3221,7 +3221,7 @@
         <v>43</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3238,7 +3238,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3255,7 +3255,7 @@
         <v>45</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3272,7 +3272,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3289,7 +3289,7 @@
         <v>47</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3306,7 +3306,7 @@
         <v>48</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
         <v>51</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>52</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3391,7 +3391,7 @@
         <v>53</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3408,7 +3408,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3425,7 +3425,7 @@
         <v>55</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3442,7 +3442,7 @@
         <v>56</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3459,7 +3459,7 @@
         <v>57</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">

--- a/src/Entrega2.xlsx
+++ b/src/Entrega2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\OneDrive\Documentos\UBA\1ero 2020\Numerico\TPs\entrega-2\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\OneDrive\Documentos\UBA\1ero-2020\Numerico\TPs\entrega-2\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95673FD-B2D6-4CC4-BD9A-A32E8222AC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F736CA3B-D049-4AAE-80CF-9307D57809C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
   </bookViews>
@@ -408,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +423,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,14 +448,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -458,17 +457,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,6 +1300,1561 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2F03-4E9E-A98F-F928CF485B89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>funcion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D:$D</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G:$G</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.14554228822935361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15997740670906685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17584691495693702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.193293612085289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21247453987015133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2335624059325993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25674714939177912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2822376632782938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31026368943227772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34107790319063919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37495820690718135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41221025326366639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45317022143703206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49820787150734724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54772990504413122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60218366261892697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66206119208549008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72790372487421029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80030660129591447</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87992468997666229</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96747835108773272</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0637599980357104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1696413177827576</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2860812160277211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4141345601508521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5549618001704055</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7098395560463282</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8801722685696098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0675050208782229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2735376484328933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5001402671682911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7493703626180124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0234915972163652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.324994508840259</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6566192911178508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0213808652593084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4225964743378512</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8639160542631119</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3493556613606961</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.8833342647404043</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4707142427642861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.1168459572042364</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8276168164264481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6095052805087562</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.4696403069737283</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.415866786232591</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.456817571352362</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.601992767899477</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.861847016947559</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.24788557849428</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.772770104204177</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.450435078344054</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.296216004846311</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.326990527547643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.561333790828431</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.019689480243265</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.72455812852661</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.700704432941357</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.975385506816558</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39.578602182952203</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.543375701173055</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47.906052348709153</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.706638882475069</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57.98917184916295</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63.802124235037915</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.198853225401308</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>77.238093237128453</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.98449881009283</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>93.509242408630755</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.89067269684219</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>113.21503941629082</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>124.57729161685694</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>137.08195667697609</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>150.84410830469457</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>165.99043254301088</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>182.66040171966765</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>201.0075672915489</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>221.20098364664133</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>243.42677615259095</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>267.88986809182069</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>294.81588261166814</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>324.45323745812578</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>357.07545206893712</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>392.98368859313621</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>432.50955059837275</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>476.01816564522125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>523.91158057206167</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>576.63250127010417</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>634.66841196351902</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>698.55611257500607</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>768.88671668615302</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>846.31115693183267</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>931.54624943959595</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1025.3813741836491</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1128.685833918453</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1242.4169607440433</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1367.6290463943878</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1505.4831800981078</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1657.2580864114097</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1824.3620648469443</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2008.3461435090596</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2210.918570394108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2433.9607786326005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2679.5449758582026</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2949.9535232182952</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3247.7002864385686</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3575.5541599796834</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3936.5649858547249</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4334.0921113076138</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4771.8358544991697</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5253.8721748477155</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5784.6908749852582</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6369.237694708353</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7012.9606941423644</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7721.8613639492969</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8502.5509451812195</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9362.31249073873</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10309.169254808881</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11351.960056646763</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12500.422331204478</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13765.283652028676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC49-4BFC-A1F5-304DB3C0C9E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D:$D</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H:$H</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.22791918965705599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.243805964651269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26091515793020198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.279348178599853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.299215390049208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32063694421936201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34374369737216498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36867821566581399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39559587972495902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.424666098369681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45607364275204099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49002011335305801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52672555363067197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56643022559568401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.609396564244993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65591132961881804</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70628797729225501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76086927038557695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82003015870880702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88418095347433001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95377082915026201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0292916875246401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1112824229484399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2003336320712099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2970928162300901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.40227013006035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5166447359305699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6410718305429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7764904175631899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9239319085514801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0845296438571301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2595294356442799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.45030124695699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6583521338705598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8853405924769802</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1330924689093398</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4036186090388201</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6991344451216102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0220817398060698</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3751527338412197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7613169729052496</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1838511215895098</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6463721091732202</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.1528739929070602</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7077689706554198</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3159330265645401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9827567516498297</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.7142019466431098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.5168646880327898</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.398045621007601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.365828336157399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.429166791625001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.597982860456399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.883275215865201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.297240916957499</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.8534112263475</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.566803381518699</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21.454090256583498</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.533790093453899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.826478755011099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28.355027261756899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.144867722351599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.224291162697597</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37.624781203873901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.3813880431371</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45.5331477621936</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.123552631922202</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55.201078812788197</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60.819778676881803</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67.039945913938297</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73.9288626448038</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.561638968635606</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90.022156734068105</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99.4041308717796</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>109.812303381609</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>121.363787060402</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>134.189578320008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>148.43626101584599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>164.267926128146</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>181.86833545928101</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>201.443361287698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>223.22373821580101</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>247.46816833903199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>274.466826430335</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>304.54531817394002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>338.06915170518801</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>375.448790944569</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>417.14536859882799</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>463.67714740511798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>515.62683040552304</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>573.64983497645505</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>638.48366124998302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>710.958503738883</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>792.00927574313198</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>882.68923985076799</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>984.18546498511296</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1097.83636149268</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1225.15158128605</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1367.83461071434</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1527.8084303912301</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1707.2446695415399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1908.59674354141</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2134.63753338384</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2388.5022461410199</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2673.7371876586299</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2994.3552844862202</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3354.8993134734801</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3760.5139369148601</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4217.0278013399102</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4731.0471421821903</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5310.0625482670102</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5962.5707835553203</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6698.2138437446001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7527.9377478004599</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8464.1739358004197</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9521.0465721688797</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10714.6095462175</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12063.1175300097</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13587.3361086804</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15310.8967540718</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17260.703284671599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC49-4BFC-A1F5-304DB3C0C9E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2146,16 +3719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>460003</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>151839</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>298637</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>262779</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6723</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2480,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD16D5C-3915-4797-AD42-A46A7196562F}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:Z505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:E57"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,9 +4064,11 @@
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2509,8 +4084,19 @@
       <c r="E1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>EXP((-2.0218392) + (0.0945429532)*D1 + (0.00000765295314)*(D1^2))</f>
+        <v>0.14554228822935361</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.22791918965705599</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,8 +4112,29 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G65" si="0">EXP((-2.0218392) + (0.0945429532)*D2+ (0.00000765295314)*(D2^2))</f>
+        <v>0.15997740670906685</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.243805964651269</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="N2" s="5">
+        <v>-2.0218392000000001</v>
+      </c>
+      <c r="O2" s="5">
+        <v>9.4542953200000002E-2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>-7.6529531400000001E-6</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2543,8 +4150,20 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17584691495693702</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.26091515793020198</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2560,8 +4179,20 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.193293612085289</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.279348178599853</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +4208,20 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21247453987015133</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.299215390049208</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2594,8 +4237,20 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2335624059325993</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.32063694421936201</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +4266,20 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25674714939177912</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.34374369737216498</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,8 +4295,20 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2822376632782938</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.36867821566581399</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,8 +4324,20 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31026368943227772</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.39559587972495902</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2662,8 +4353,20 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34107790319063919</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.424666098369681</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +4382,20 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37495820690718135</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.45607364275204099</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,8 +4411,20 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41221025326366639</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.49002011335305801</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,8 +4440,20 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45317022143703206</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.52672555363067197</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2730,8 +4469,20 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49820787150734724</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.56643022559568401</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2747,8 +4498,20 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54772990504413122</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.609396564244993</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,8 +4527,20 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60218366261892697</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.65591132961881804</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2781,8 +4556,20 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66206119208549008</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.70628797729225501</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2798,8 +4585,20 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72790372487421029</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.76086927038557695</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2815,8 +4614,20 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80030660129591447</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.82003015870880702</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2832,8 +4643,20 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87992468997666229</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.88418095347433001</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2849,8 +4672,20 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96747835108773272</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.95377082915026201</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2866,8 +4701,20 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0637599980357104</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0292916875246401</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2883,8 +4730,20 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1696413177827576</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.1112824229484399</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2900,8 +4759,20 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2860812160277211</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.2003336320712099</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,8 +4788,20 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4141345601508521</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.2970928162300901</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2934,8 +4817,20 @@
       <c r="E26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5549618001704055</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.40227013006035</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2951,8 +4846,20 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7098395560463282</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.5166447359305699</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,8 +4875,20 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8801722685696098</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.6410718305429</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2985,8 +4904,20 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0675050208782229</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.7764904175631899</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3002,8 +4933,20 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2735376484328933</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.9239319085514801</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,8 +4962,20 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5001402671682911</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.0845296438571301</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3036,8 +4991,20 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7493703626180124</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.2595294356442799</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3053,8 +5020,20 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0234915972163652</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.45030124695699</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,8 +5049,20 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.324994508840259</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.6583521338705598</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,8 +5078,20 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6566192911178508</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2.8853405924769802</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,8 +5107,20 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0213808652593084</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.1330924689093398</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3121,8 +5136,20 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4225964743378512</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3.4036186090388201</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3138,8 +5165,20 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8639160542631119</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.6991344451216102</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,8 +5194,20 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3493556613606961</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4.0220817398060698</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3172,8 +5223,20 @@
       <c r="E40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8833342647404043</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4.3751527338412197</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3189,8 +5252,20 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4707142427642861</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4.7613169729052496</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3206,8 +5281,20 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1168459572042364</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.1838511215895098</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3223,8 +5310,20 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8276168164264481</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5.6463721091732202</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3240,8 +5339,20 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6095052805087562</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6.1528739929070602</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,8 +5368,20 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4696403069737283</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6.7077689706554198</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3274,8 +5397,20 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>10.415866786232591</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7.3159330265645401</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3291,8 +5426,20 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>11.456817571352362</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7.9827567516498297</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,8 +5455,20 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>12.601992767899477</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8.7142019466431098</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3325,8 +5484,19 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>13.861847016947559</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9.5168646880327898</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3342,8 +5512,20 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>15.24788557849428</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10.398045621007601</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3359,8 +5541,20 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>16.772770104204177</v>
+      </c>
+      <c r="H51" s="1">
+        <v>11.365828336157399</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3376,8 +5570,20 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>18.450435078344054</v>
+      </c>
+      <c r="H52" s="1">
+        <v>12.429166791625001</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3393,8 +5599,20 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>20.296216004846311</v>
+      </c>
+      <c r="H53" s="1">
+        <v>13.597982860456399</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3410,8 +5628,20 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>22.326990527547643</v>
+      </c>
+      <c r="H54" s="1">
+        <v>14.883275215865201</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,8 +5657,20 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>24.561333790828431</v>
+      </c>
+      <c r="H55" s="1">
+        <v>16.297240916957499</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3444,8 +5686,20 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>27.019689480243265</v>
+      </c>
+      <c r="H56" s="1">
+        <v>17.8534112263475</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3461,8 +5715,20 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>29.72455812852661</v>
+      </c>
+      <c r="H57" s="1">
+        <v>19.566803381518699</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3478,8 +5744,20 @@
       <c r="E58" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>32.700704432941357</v>
+      </c>
+      <c r="H58" s="1">
+        <v>21.454090256583498</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3495,8 +5773,20 @@
       <c r="E59" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>35.975385506816558</v>
+      </c>
+      <c r="H59" s="1">
+        <v>23.533790093453899</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3512,8 +5802,20 @@
       <c r="E60" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>39.578602182952203</v>
+      </c>
+      <c r="H60" s="1">
+        <v>25.826478755011099</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,8 +5831,20 @@
       <c r="E61" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>43.543375701173055</v>
+      </c>
+      <c r="H61" s="1">
+        <v>28.355027261756899</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3546,8 +5860,20 @@
       <c r="E62" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>47.906052348709153</v>
+      </c>
+      <c r="H62" s="1">
+        <v>31.144867722351599</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3563,8 +5889,20 @@
       <c r="E63" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>52.706638882475069</v>
+      </c>
+      <c r="H63" s="1">
+        <v>34.224291162697597</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3580,8 +5918,20 @@
       <c r="E64" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>57.98917184916295</v>
+      </c>
+      <c r="H64" s="1">
+        <v>37.624781203873901</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3597,8 +5947,20 @@
       <c r="E65" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>63.802124235037915</v>
+      </c>
+      <c r="H65" s="1">
+        <v>41.3813880431371</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3614,8 +5976,18 @@
       <c r="E66" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="1">
+        <f t="shared" ref="G66:G121" si="1">EXP((-2.0218392) + (0.0945429532)*D66+ (0.00000765295314)*(D66^2))</f>
+        <v>70.198853225401308</v>
+      </c>
+      <c r="H66" s="1">
+        <v>45.5331477621936</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3631,8 +6003,18 @@
       <c r="E67" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="1">
+        <f t="shared" si="1"/>
+        <v>77.238093237128453</v>
+      </c>
+      <c r="H67" s="1">
+        <v>50.123552631922202</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3648,8 +6030,18 @@
       <c r="E68" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="1">
+        <f t="shared" si="1"/>
+        <v>84.98449881009283</v>
+      </c>
+      <c r="H68" s="1">
+        <v>55.201078812788197</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3668,9 +6060,18 @@
       <c r="F69" s="2">
         <v>103</v>
       </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="1">
+        <f t="shared" si="1"/>
+        <v>93.509242408630755</v>
+      </c>
+      <c r="H69" s="1">
+        <v>60.819778676881803</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -3689,9 +6090,18 @@
       <c r="F70" s="2">
         <v>410</v>
       </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="1">
+        <f t="shared" si="1"/>
+        <v>102.89067269684219</v>
+      </c>
+      <c r="H70" s="1">
+        <v>67.039945913938297</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -3707,9 +6117,18 @@
       <c r="E71" s="1">
         <v>286</v>
       </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="1">
+        <f t="shared" si="1"/>
+        <v>113.21503941629082</v>
+      </c>
+      <c r="H71" s="1">
+        <v>73.9288626448038</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3725,8 +6144,18 @@
       <c r="E72" s="1">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="1">
+        <f t="shared" si="1"/>
+        <v>124.57729161685694</v>
+      </c>
+      <c r="H72" s="1">
+        <v>81.561638968635606</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -3742,8 +6171,18 @@
       <c r="E73" s="1">
         <v>497</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="1">
+        <f t="shared" si="1"/>
+        <v>137.08195667697609</v>
+      </c>
+      <c r="H73" s="1">
+        <v>90.022156734068105</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3759,8 +6198,18 @@
       <c r="E74" s="1">
         <v>595</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <f t="shared" si="1"/>
+        <v>150.84410830469457</v>
+      </c>
+      <c r="H74" s="1">
+        <v>99.4041308717796</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -3776,8 +6225,18 @@
       <c r="E75" s="1">
         <v>785</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="1">
+        <f t="shared" si="1"/>
+        <v>165.99043254301088</v>
+      </c>
+      <c r="H75" s="1">
+        <v>109.812303381609</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -3793,8 +6252,18 @@
       <c r="E76" s="1">
         <v>838</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="1">
+        <f t="shared" si="1"/>
+        <v>182.66040171966765</v>
+      </c>
+      <c r="H76" s="1">
+        <v>121.363787060402</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -3810,8 +6279,18 @@
       <c r="E77" s="1">
         <v>924</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="1">
+        <f t="shared" si="1"/>
+        <v>201.0075672915489</v>
+      </c>
+      <c r="H77" s="1">
+        <v>134.189578320008</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3827,8 +6306,18 @@
       <c r="E78" s="1">
         <v>1210</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="1">
+        <f t="shared" si="1"/>
+        <v>221.20098364664133</v>
+      </c>
+      <c r="H78" s="1">
+        <v>148.43626101584599</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3844,8 +6333,18 @@
       <c r="E79" s="1">
         <v>1097</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="1">
+        <f t="shared" si="1"/>
+        <v>243.42677615259095</v>
+      </c>
+      <c r="H79" s="1">
+        <v>164.267926128146</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -3861,8 +6360,18 @@
       <c r="E80" s="1">
         <v>1404</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="1">
+        <f t="shared" si="1"/>
+        <v>267.88986809182069</v>
+      </c>
+      <c r="H80" s="1">
+        <v>181.86833545928101</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -3878,8 +6387,18 @@
       <c r="E81" s="1">
         <v>1861</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1">
+        <f t="shared" si="1"/>
+        <v>294.81588261166814</v>
+      </c>
+      <c r="H81" s="1">
+        <v>201.443361287698</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -3895,8 +6414,18 @@
       <c r="E82" s="1">
         <v>1617</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <f t="shared" si="1"/>
+        <v>324.45323745812578</v>
+      </c>
+      <c r="H82" s="1">
+        <v>223.22373821580101</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -3912,8 +6441,18 @@
       <c r="E83" s="1">
         <v>1847</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <f t="shared" si="1"/>
+        <v>357.07545206893712</v>
+      </c>
+      <c r="H83" s="1">
+        <v>247.46816833903199</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3929,8 +6468,18 @@
       <c r="E84" s="1">
         <v>1559</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1">
+        <f t="shared" si="1"/>
+        <v>392.98368859313621</v>
+      </c>
+      <c r="H84" s="1">
+        <v>274.466826430335</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,8 +6495,18 @@
       <c r="E85" s="1">
         <v>3838</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="1">
+        <f t="shared" si="1"/>
+        <v>432.50955059837275</v>
+      </c>
+      <c r="H85" s="1">
+        <v>304.54531817394002</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -3963,8 +6522,18 @@
       <c r="E86" s="1">
         <v>2446</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <f t="shared" si="1"/>
+        <v>476.01816564522125</v>
+      </c>
+      <c r="H86" s="1">
+        <v>338.06915170518801</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -3980,8 +6549,18 @@
       <c r="E87" s="1">
         <v>2931</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1">
+        <f t="shared" si="1"/>
+        <v>523.91158057206167</v>
+      </c>
+      <c r="H87" s="1">
+        <v>375.448790944569</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3997,8 +6576,18 @@
       <c r="E88" s="1">
         <v>3922</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1">
+        <f t="shared" si="1"/>
+        <v>576.63250127010417</v>
+      </c>
+      <c r="H88" s="1">
+        <v>417.14536859882799</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -4014,8 +6603,18 @@
       <c r="E89" s="1">
         <v>3809</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1">
+        <f t="shared" si="1"/>
+        <v>634.66841196351902</v>
+      </c>
+      <c r="H89" s="1">
+        <v>463.67714740511798</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4031,8 +6630,18 @@
       <c r="E90" s="1">
         <v>4611</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="1">
+        <f t="shared" si="1"/>
+        <v>698.55611257500607</v>
+      </c>
+      <c r="H90" s="1">
+        <v>515.62683040552304</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -4048,8 +6657,18 @@
       <c r="E91" s="1">
         <v>2599</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="1">
+        <f t="shared" si="1"/>
+        <v>768.88671668615302</v>
+      </c>
+      <c r="H91" s="1">
+        <v>573.64983497645505</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -4068,8 +6687,18 @@
       <c r="F92" s="3">
         <v>4376</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1">
+        <f t="shared" si="1"/>
+        <v>846.31115693183267</v>
+      </c>
+      <c r="H92" s="1">
+        <v>638.48366124998302</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -4088,8 +6717,18 @@
       <c r="F93" s="3">
         <v>7578</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1">
+        <f t="shared" si="1"/>
+        <v>931.54624943959595</v>
+      </c>
+      <c r="H93" s="1">
+        <v>710.958503738883</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -4108,8 +6747,18 @@
       <c r="F94" s="3">
         <v>4861</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1">
+        <f t="shared" si="1"/>
+        <v>1025.3813741836491</v>
+      </c>
+      <c r="H94" s="1">
+        <v>792.00927574313198</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,8 +6774,18 @@
       <c r="E95" s="1">
         <v>2116</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="1">
+        <f t="shared" si="1"/>
+        <v>1128.685833918453</v>
+      </c>
+      <c r="H95" s="1">
+        <v>882.68923985076799</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -4142,8 +6801,18 @@
       <c r="E96" s="1">
         <v>5233</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1">
+        <f t="shared" si="1"/>
+        <v>1242.4169607440433</v>
+      </c>
+      <c r="H96" s="1">
+        <v>984.18546498511296</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,8 +6828,18 @@
       <c r="E97" s="1">
         <v>4267</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1">
+        <f t="shared" si="1"/>
+        <v>1367.6290463943878</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1097.83636149268</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -4176,8 +6855,18 @@
       <c r="E98" s="1">
         <v>1873</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1">
+        <f t="shared" si="1"/>
+        <v>1505.4831800981078</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1225.15158128605</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -4193,8 +6882,18 @@
       <c r="E99" s="1">
         <v>3912</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1">
+        <f t="shared" si="1"/>
+        <v>1657.2580864114097</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1367.83461071434</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -4210,8 +6909,18 @@
       <c r="E100" s="1">
         <v>3777</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1">
+        <f t="shared" si="1"/>
+        <v>1824.3620648469443</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1527.8084303912301</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -4227,8 +6936,18 @@
       <c r="E101" s="1">
         <v>3881</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <f t="shared" si="1"/>
+        <v>2008.3461435090596</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1707.2446695415399</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -4244,8 +6963,18 @@
       <c r="E102" s="1">
         <v>4286</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <f t="shared" si="1"/>
+        <v>2210.918570394108</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1908.59674354141</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -4261,8 +6990,18 @@
       <c r="E103" s="1">
         <v>4342</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1">
+        <f t="shared" si="1"/>
+        <v>2433.9607786326005</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2134.63753338384</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -4278,8 +7017,18 @@
       <c r="E104" s="1">
         <v>3114</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1">
+        <f t="shared" si="1"/>
+        <v>2679.5449758582026</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2388.5022461410199</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -4295,8 +7044,18 @@
       <c r="E105" s="1">
         <v>1613</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1">
+        <f t="shared" si="1"/>
+        <v>2949.9535232182952</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2673.7371876586299</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -4312,8 +7071,18 @@
       <c r="E106" s="1">
         <v>2673</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1">
+        <f t="shared" si="1"/>
+        <v>3247.7002864385686</v>
+      </c>
+      <c r="H106" s="1">
+        <v>2994.3552844862202</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -4329,8 +7098,18 @@
       <c r="E107" s="1">
         <v>5497</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1">
+        <f t="shared" si="1"/>
+        <v>3575.5541599796834</v>
+      </c>
+      <c r="H107" s="1">
+        <v>3354.8993134734801</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -4346,8 +7125,18 @@
       <c r="E108" s="1">
         <v>2633</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1">
+        <f t="shared" si="1"/>
+        <v>3936.5649858547249</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3760.5139369148601</v>
+      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -4366,8 +7155,18 @@
       <c r="F109" s="3">
         <v>2641</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1">
+        <f t="shared" si="1"/>
+        <v>4334.0921113076138</v>
+      </c>
+      <c r="H109" s="1">
+        <v>4217.0278013399102</v>
+      </c>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -4386,8 +7185,18 @@
       <c r="F110" s="3">
         <v>405</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1">
+        <f t="shared" si="1"/>
+        <v>4771.8358544991697</v>
+      </c>
+      <c r="H110" s="1">
+        <v>4731.0471421821903</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -4406,8 +7215,18 @@
       <c r="F111" s="4">
         <v>2569</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1">
+        <f t="shared" si="1"/>
+        <v>5253.8721748477155</v>
+      </c>
+      <c r="H111" s="1">
+        <v>5310.0625482670102</v>
+      </c>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -4426,8 +7245,18 @@
       <c r="F112" s="4">
         <v>785</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G112" s="1">
+        <f t="shared" si="1"/>
+        <v>5784.6908749852582</v>
+      </c>
+      <c r="H112" s="1">
+        <v>5962.5707835553203</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4443,8 +7272,18 @@
       <c r="E113" s="1">
         <v>2051</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G113" s="1">
+        <f t="shared" si="1"/>
+        <v>6369.237694708353</v>
+      </c>
+      <c r="H113" s="1">
+        <v>6698.2138437446001</v>
+      </c>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4460,8 +7299,18 @@
       <c r="E114" s="1">
         <v>2667</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G114" s="1">
+        <f t="shared" si="1"/>
+        <v>7012.9606941423644</v>
+      </c>
+      <c r="H114" s="1">
+        <v>7527.9377478004599</v>
+      </c>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -4477,8 +7326,18 @@
       <c r="E115" s="1">
         <v>1827</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G115" s="1">
+        <f t="shared" si="1"/>
+        <v>7721.8613639492969</v>
+      </c>
+      <c r="H115" s="1">
+        <v>8464.1739358004197</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -4494,8 +7353,18 @@
       <c r="E116" s="1">
         <v>1653</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G116" s="1">
+        <f t="shared" si="1"/>
+        <v>8502.5509451812195</v>
+      </c>
+      <c r="H116" s="1">
+        <v>9521.0465721688797</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -4511,8 +7380,18 @@
       <c r="E117" s="1">
         <v>1773</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <f t="shared" si="1"/>
+        <v>9362.31249073873</v>
+      </c>
+      <c r="H117" s="1">
+        <v>10714.6095462175</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -4528,8 +7407,18 @@
       <c r="E118" s="1">
         <v>1537</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G118" s="1">
+        <f t="shared" si="1"/>
+        <v>10309.169254808881</v>
+      </c>
+      <c r="H118" s="1">
+        <v>12063.1175300097</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,8 +7434,18 @@
       <c r="E119" s="1">
         <v>461</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G119" s="1">
+        <f t="shared" si="1"/>
+        <v>11351.960056646763</v>
+      </c>
+      <c r="H119" s="1">
+        <v>13587.3361086804</v>
+      </c>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4562,8 +7461,18 @@
       <c r="E120" s="1">
         <v>1195</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G120" s="1">
+        <f t="shared" si="1"/>
+        <v>12500.422331204478</v>
+      </c>
+      <c r="H120" s="1">
+        <v>15310.8967540718</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -4579,6 +7488,1168 @@
       <c r="E121" s="1">
         <v>1065</v>
       </c>
+      <c r="G121" s="1">
+        <f t="shared" si="1"/>
+        <v>13765.283652028676</v>
+      </c>
+      <c r="H121" s="1">
+        <v>17260.703284671599</v>
+      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G354" s="1"/>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G355" s="1"/>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G356" s="1"/>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G358" s="1"/>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G360" s="1"/>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G361" s="1"/>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G363" s="1"/>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G364" s="1"/>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G365" s="1"/>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G366" s="1"/>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G367" s="1"/>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G368" s="1"/>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G369" s="1"/>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G370" s="1"/>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G371" s="1"/>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G372" s="1"/>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G373" s="1"/>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G374" s="1"/>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G376" s="1"/>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G377" s="1"/>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G378" s="1"/>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G379" s="1"/>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G380" s="1"/>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G381" s="1"/>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G382" s="1"/>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G383" s="1"/>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G384" s="1"/>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G385" s="1"/>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G386" s="1"/>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G387" s="1"/>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G388" s="1"/>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G389" s="1"/>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G390" s="1"/>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G391" s="1"/>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G392" s="1"/>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G393" s="1"/>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G394" s="1"/>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G395" s="1"/>
+    </row>
+    <row r="396" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G397" s="1"/>
+    </row>
+    <row r="398" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G398" s="1"/>
+    </row>
+    <row r="399" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G399" s="1"/>
+    </row>
+    <row r="400" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G400" s="1"/>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G401" s="1"/>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G402" s="1"/>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G403" s="1"/>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G404" s="1"/>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G405" s="1"/>
+    </row>
+    <row r="406" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G406" s="1"/>
+    </row>
+    <row r="407" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G407" s="1"/>
+    </row>
+    <row r="408" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G408" s="1"/>
+    </row>
+    <row r="409" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G409" s="1"/>
+    </row>
+    <row r="410" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G410" s="1"/>
+    </row>
+    <row r="411" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G411" s="1"/>
+    </row>
+    <row r="412" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G412" s="1"/>
+    </row>
+    <row r="413" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G413" s="1"/>
+    </row>
+    <row r="414" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G415" s="1"/>
+    </row>
+    <row r="416" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G416" s="1"/>
+    </row>
+    <row r="417" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G417" s="1"/>
+    </row>
+    <row r="418" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G418" s="1"/>
+    </row>
+    <row r="419" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G419" s="1"/>
+    </row>
+    <row r="420" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G420" s="1"/>
+    </row>
+    <row r="421" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G421" s="1"/>
+    </row>
+    <row r="422" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G422" s="1"/>
+    </row>
+    <row r="423" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G423" s="1"/>
+    </row>
+    <row r="424" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G424" s="1"/>
+    </row>
+    <row r="425" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G425" s="1"/>
+    </row>
+    <row r="426" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G426" s="1"/>
+    </row>
+    <row r="427" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G427" s="1"/>
+    </row>
+    <row r="428" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G428" s="1"/>
+    </row>
+    <row r="429" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G429" s="1"/>
+    </row>
+    <row r="430" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G430" s="1"/>
+    </row>
+    <row r="431" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G431" s="1"/>
+    </row>
+    <row r="432" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G432" s="1"/>
+    </row>
+    <row r="433" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G433" s="1"/>
+    </row>
+    <row r="434" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G434" s="1"/>
+    </row>
+    <row r="435" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G435" s="1"/>
+    </row>
+    <row r="436" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G436" s="1"/>
+    </row>
+    <row r="437" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G437" s="1"/>
+    </row>
+    <row r="438" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G438" s="1"/>
+    </row>
+    <row r="439" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G439" s="1"/>
+    </row>
+    <row r="440" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G440" s="1"/>
+    </row>
+    <row r="441" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G441" s="1"/>
+    </row>
+    <row r="442" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G442" s="1"/>
+    </row>
+    <row r="443" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G443" s="1"/>
+    </row>
+    <row r="444" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G444" s="1"/>
+    </row>
+    <row r="445" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G505" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Entrega2.xlsx
+++ b/src/Entrega2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\OneDrive\Documentos\UBA\1ero-2020\Numerico\TPs\entrega-2\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\PycharmProjects\entrega-2\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F736CA3B-D049-4AAE-80CF-9307D57809C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A362625-56ED-4D49-91C0-C6DCDE296784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{018AF0C9-1332-47C6-90FC-A18FAE2476D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="124">
   <si>
     <t>FRA</t>
   </si>
@@ -402,13 +402,16 @@
   </si>
   <si>
     <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>[-2.02183920e+00  9.45429532e-02 -7.65295314e-06]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,11 +425,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -449,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -457,36 +455,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +499,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8188284572293769E-2"/>
+          <c:y val="9.0558971832864238E-2"/>
+          <c:w val="0.88054931169139528"/>
+          <c:h val="0.86439820200258866"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -921,6 +910,9 @@
                 <c:pt idx="120">
                   <c:v>121</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>7381</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1300,1561 +1292,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2F03-4E9E-A98F-F928CF485B89}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>funcion</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D:$D</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G:$G</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>0.14554228822935361</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15997740670906685</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17584691495693702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.193293612085289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21247453987015133</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2335624059325993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25674714939177912</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2822376632782938</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31026368943227772</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.34107790319063919</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37495820690718135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.41221025326366639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45317022143703206</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.49820787150734724</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.54772990504413122</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.60218366261892697</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66206119208549008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.72790372487421029</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.80030660129591447</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.87992468997666229</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96747835108773272</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0637599980357104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1696413177827576</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2860812160277211</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4141345601508521</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5549618001704055</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.7098395560463282</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8801722685696098</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0675050208782229</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.2735376484328933</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.5001402671682911</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.7493703626180124</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.0234915972163652</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.324994508840259</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.6566192911178508</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.0213808652593084</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.4225964743378512</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.8639160542631119</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.3493556613606961</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.8833342647404043</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.4707142427642861</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.1168459572042364</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.8276168164264481</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.6095052805087562</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.4696403069737283</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.415866786232591</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.456817571352362</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.601992767899477</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>13.861847016947559</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15.24788557849428</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.772770104204177</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18.450435078344054</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>20.296216004846311</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>22.326990527547643</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>24.561333790828431</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27.019689480243265</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.72455812852661</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>32.700704432941357</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>35.975385506816558</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39.578602182952203</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43.543375701173055</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>47.906052348709153</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>52.706638882475069</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>57.98917184916295</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>63.802124235037915</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70.198853225401308</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>77.238093237128453</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>84.98449881009283</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>93.509242408630755</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>102.89067269684219</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>113.21503941629082</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>124.57729161685694</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>137.08195667697609</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>150.84410830469457</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>165.99043254301088</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>182.66040171966765</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>201.0075672915489</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>221.20098364664133</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>243.42677615259095</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>267.88986809182069</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>294.81588261166814</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>324.45323745812578</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>357.07545206893712</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>392.98368859313621</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>432.50955059837275</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>476.01816564522125</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>523.91158057206167</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>576.63250127010417</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>634.66841196351902</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>698.55611257500607</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>768.88671668615302</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>846.31115693183267</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>931.54624943959595</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1025.3813741836491</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1128.685833918453</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1242.4169607440433</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1367.6290463943878</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1505.4831800981078</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1657.2580864114097</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1824.3620648469443</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2008.3461435090596</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2210.918570394108</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2433.9607786326005</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2679.5449758582026</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2949.9535232182952</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3247.7002864385686</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3575.5541599796834</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3936.5649858547249</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4334.0921113076138</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4771.8358544991697</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5253.8721748477155</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5784.6908749852582</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6369.237694708353</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7012.9606941423644</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7721.8613639492969</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>8502.5509451812195</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>9362.31249073873</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>10309.169254808881</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11351.960056646763</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>12500.422331204478</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>13765.283652028676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC49-4BFC-A1F5-304DB3C0C9E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D:$D</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H:$H</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>0.22791918965705599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.243805964651269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26091515793020198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.279348178599853</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.299215390049208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32063694421936201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34374369737216498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36867821566581399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39559587972495902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.424666098369681</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45607364275204099</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49002011335305801</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.52672555363067197</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.56643022559568401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.609396564244993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.65591132961881804</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70628797729225501</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76086927038557695</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.82003015870880702</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.88418095347433001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.95377082915026201</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0292916875246401</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1112824229484399</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2003336320712099</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2970928162300901</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.40227013006035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5166447359305699</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6410718305429</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.7764904175631899</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.9239319085514801</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.0845296438571301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.2595294356442799</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.45030124695699</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.6583521338705598</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.8853405924769802</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.1330924689093398</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.4036186090388201</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6991344451216102</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.0220817398060698</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.3751527338412197</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.7613169729052496</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.1838511215895098</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.6463721091732202</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.1528739929070602</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.7077689706554198</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.3159330265645401</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.9827567516498297</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.7142019466431098</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.5168646880327898</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.398045621007601</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.365828336157399</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.429166791625001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.597982860456399</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>14.883275215865201</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>16.297240916957499</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17.8534112263475</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>19.566803381518699</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>21.454090256583498</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23.533790093453899</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>25.826478755011099</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>28.355027261756899</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>31.144867722351599</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>34.224291162697597</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>37.624781203873901</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>41.3813880431371</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45.5331477621936</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50.123552631922202</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55.201078812788197</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>60.819778676881803</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>67.039945913938297</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73.9288626448038</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>81.561638968635606</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>90.022156734068105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>99.4041308717796</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>109.812303381609</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>121.363787060402</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>134.189578320008</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>148.43626101584599</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>164.267926128146</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>181.86833545928101</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>201.443361287698</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>223.22373821580101</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>247.46816833903199</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>274.466826430335</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>304.54531817394002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>338.06915170518801</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>375.448790944569</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>417.14536859882799</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>463.67714740511798</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>515.62683040552304</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>573.64983497645505</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>638.48366124998302</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>710.958503738883</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>792.00927574313198</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>882.68923985076799</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>984.18546498511296</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1097.83636149268</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1225.15158128605</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1367.83461071434</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1527.8084303912301</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1707.2446695415399</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1908.59674354141</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2134.63753338384</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2388.5022461410199</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2673.7371876586299</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2994.3552844862202</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3354.8993134734801</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3760.5139369148601</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4217.0278013399102</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4731.0471421821903</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5310.0625482670102</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5962.5707835553203</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6698.2138437446001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7527.9377478004599</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8464.1739358004197</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9521.0465721688797</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>10714.6095462175</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>12063.1175300097</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>13587.3361086804</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>15310.8967540718</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>17260.703284671599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AC49-4BFC-A1F5-304DB3C0C9E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2945,7 +1382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2983,7 +1420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="475762552"/>
@@ -3062,7 +1499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3100,7 +1537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="475762224"/>
@@ -3148,7 +1585,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3719,16 +2156,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298637</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>572061</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>385482</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>374839</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4053,22 +2490,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD16D5C-3915-4797-AD42-A46A7196562F}">
-  <dimension ref="A1:Z505"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4085,18 +2521,28 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <f>EXP((-2.0218392) + (0.0945429532)*D1 + (0.00000765295314)*(D1^2))</f>
-        <v>0.14554228822935361</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0.22791918965705599</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> 2.0218392  -(D1*0.0945429532 )+(D1*D1*0.00000765295314)</f>
+        <v>1.9273038997531402</v>
+      </c>
+      <c r="H1">
+        <f>EXP(G1)</f>
+        <v>6.8709604486054019</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <f xml:space="preserve"> 2.0218392  -(D1*0.0945429532 )+(D1*D1*0.00000765295314)</f>
+        <v>1.9273038997531402</v>
+      </c>
+      <c r="R1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4113,28 +2559,31 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G65" si="0">EXP((-2.0218392) + (0.0945429532)*D2+ (0.00000765295314)*(D2^2))</f>
-        <v>0.15997740670906685</v>
+        <f t="shared" ref="G2:G65" si="0" xml:space="preserve"> 2.0218392  -(D2*0.0945429532 )+(D2*D2*0.00000765295314)</f>
+        <v>1.8327839054125601</v>
       </c>
       <c r="H2" s="1">
-        <v>0.243805964651269</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="N2" s="5">
+        <f t="shared" ref="H2:H65" si="1">EXP(G2)</f>
+        <v>6.251265388480916</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> -2.0218392</f>
         <v>-2.0218392000000001</v>
       </c>
-      <c r="O2" s="5">
+      <c r="S2" s="5">
         <v>9.4542953200000002E-2</v>
       </c>
-      <c r="P2" s="5">
+      <c r="T2" s="5">
         <v>-7.6529531400000001E-6</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,18 +2601,20 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0.17584691495693702</v>
+        <v>1.7382792169782599</v>
       </c>
       <c r="H3" s="1">
-        <v>0.26091515793020198</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>5.6875479611902451</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4181,18 +2632,20 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0.193293612085289</v>
+        <v>1.64378983445024</v>
       </c>
       <c r="H4" s="1">
-        <v>0.279348178599853</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>5.1747438195124484</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4210,18 +2663,20 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>0.21247453987015133</v>
+        <v>1.5493157578285002</v>
       </c>
       <c r="H5" s="1">
-        <v>0.299215390049208</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.7082474986759033</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4239,18 +2694,20 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>0.2335624059325993</v>
+        <v>1.4548569871130399</v>
       </c>
       <c r="H6" s="1">
-        <v>0.32063694421936201</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.2838707730650762</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4268,18 +2725,20 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>0.25674714939177912</v>
+        <v>1.36041352230386</v>
       </c>
       <c r="H7" s="1">
-        <v>0.34374369737216498</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.897804797797463</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4297,18 +2756,20 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>0.2822376632782938</v>
+        <v>1.2659853634009601</v>
       </c>
       <c r="H8" s="1">
-        <v>0.36867821566581399</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.546585690649513</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4326,18 +2787,20 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0.31026368943227772</v>
+        <v>1.1715725104043402</v>
       </c>
       <c r="H9" s="1">
-        <v>0.39559587972495902</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.227063241218159</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4355,18 +2818,20 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>0.34107790319063919</v>
+        <v>1.0771749633140002</v>
       </c>
       <c r="H10" s="1">
-        <v>0.424666098369681</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.9363724627446697</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4384,18 +2849,20 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0.37495820690718135</v>
+        <v>0.98279272212993996</v>
       </c>
       <c r="H11" s="1">
-        <v>0.45607364275204099</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.6719077279624539</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4413,18 +2880,20 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>0.41221025326366639</v>
+        <v>0.88842578685216</v>
       </c>
       <c r="H12" s="1">
-        <v>0.49002011335305801</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.4312992538981106</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4442,18 +2911,20 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0.45317022143703206</v>
+        <v>0.79407415748066013</v>
       </c>
       <c r="H13" s="1">
-        <v>0.52672555363067197</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.2123917219719345</v>
+      </c>
+      <c r="J13" s="1">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4471,18 +2942,20 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0.49820787150734724</v>
+        <v>0.69973783401543987</v>
       </c>
       <c r="H14" s="1">
-        <v>0.56643022559568401</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.013224839206837</v>
+      </c>
+      <c r="J14" s="1">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4500,18 +2973,20 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0.54772990504413122</v>
+        <v>0.60541681645650003</v>
       </c>
       <c r="H15" s="1">
-        <v>0.609396564244993</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.832015664041722</v>
+      </c>
+      <c r="J15" s="1">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4529,18 +3004,20 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>0.60218366261892697</v>
+        <v>0.51111110480384003</v>
       </c>
       <c r="H16" s="1">
-        <v>0.65591132961881804</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.6671425363190648</v>
+      </c>
+      <c r="J16" s="1">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4558,18 +3035,20 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>0.66206119208549008</v>
+        <v>0.41682069905746011</v>
       </c>
       <c r="H17" s="1">
-        <v>0.70628797729225501</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.5171304656242015</v>
+      </c>
+      <c r="J17" s="1">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -4587,18 +3066,20 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>0.72790372487421029</v>
+        <v>0.32254559921736015</v>
       </c>
       <c r="H18" s="1">
-        <v>0.76086927038557695</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.3806378454294321</v>
+      </c>
+      <c r="J18" s="1">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -4616,18 +3097,20 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0.80030660129591447</v>
+        <v>0.22828580528353998</v>
       </c>
       <c r="H19" s="1">
-        <v>0.82003015870880702</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.2564443725612688</v>
+      </c>
+      <c r="J19" s="1">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -4645,18 +3128,20 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0.87992468997666229</v>
+        <v>0.13404131725600002</v>
       </c>
       <c r="H20" s="1">
-        <v>0.88418095347433001</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.1434400624744501</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -4674,18 +3159,20 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>0.96747835108773272</v>
+        <v>3.9812135134740079E-2</v>
       </c>
       <c r="H21" s="1">
-        <v>0.95377082915026201</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.0406152607821588</v>
+      </c>
+      <c r="J21" s="1">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -4703,18 +3190,20 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>1.0637599980357104</v>
+        <v>-5.4401741080240089E-2</v>
       </c>
       <c r="H22" s="1">
-        <v>1.0292916875246401</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.94705156054946737</v>
+      </c>
+      <c r="J22" s="1">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -4732,18 +3221,20 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>1.1696413177827576</v>
+        <v>-0.14860031138894003</v>
       </c>
       <c r="H23" s="1">
-        <v>1.1112824229484399</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.86191354308925172</v>
+      </c>
+      <c r="J23" s="1">
+        <v>23</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -4761,18 +3252,20 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>1.2860812160277211</v>
+        <v>-0.24278357579135998</v>
       </c>
       <c r="H24" s="1">
-        <v>1.2003336320712099</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.78444126748202703</v>
+      </c>
+      <c r="J24" s="1">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4790,18 +3283,20 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>1.4141345601508521</v>
+        <v>-0.33695153428749991</v>
       </c>
       <c r="H25" s="1">
-        <v>1.2970928162300901</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.71394344084177885</v>
+      </c>
+      <c r="J25" s="1">
+        <v>25</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4819,18 +3314,20 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>1.5549618001704055</v>
+        <v>-0.43110418687735985</v>
       </c>
       <c r="H26" s="1">
-        <v>1.40227013006035</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.64979120753106745</v>
+      </c>
+      <c r="J26" s="1">
+        <v>26</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -4848,18 +3345,20 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>1.7098395560463282</v>
+        <v>-0.52524153356093983</v>
       </c>
       <c r="H27" s="1">
-        <v>1.5166447359305699</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.59141250114699218</v>
+      </c>
+      <c r="J27" s="1">
+        <v>27</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -4877,18 +3376,20 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>1.8801722685696098</v>
+        <v>-0.61936357433824019</v>
       </c>
       <c r="H28" s="1">
-        <v>1.6410718305429</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.53828690820634406</v>
+      </c>
+      <c r="J28" s="1">
+        <v>28</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4906,18 +3407,20 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>2.0675050208782229</v>
+        <v>-0.71347030920926013</v>
       </c>
       <c r="H29" s="1">
-        <v>1.7764904175631899</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.48994099710009548</v>
+      </c>
+      <c r="J29" s="1">
+        <v>29</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -4935,18 +3438,20 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>2.2735376484328933</v>
+        <v>-0.80756173817400012</v>
       </c>
       <c r="H30" s="1">
-        <v>1.9239319085514801</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.44594407010667164</v>
+      </c>
+      <c r="J30" s="1">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4964,18 +3469,20 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>2.5001402671682911</v>
+        <v>-0.90163786123246004</v>
       </c>
       <c r="H31" s="1">
-        <v>2.0845296438571301</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.40590430008874578</v>
+      </c>
+      <c r="J31" s="1">
+        <v>31</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4993,18 +3500,20 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>2.7493703626180124</v>
+        <v>-0.99569867838463999</v>
       </c>
       <c r="H32" s="1">
-        <v>2.2595294356442799</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.36946521698457296</v>
+      </c>
+      <c r="J32" s="1">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -5022,18 +3531,20 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>3.0234915972163652</v>
+        <v>-1.08974418963054</v>
       </c>
       <c r="H33" s="1">
-        <v>2.45030124695699</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.33630251237397146</v>
+      </c>
+      <c r="J33" s="1">
+        <v>33</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5051,18 +3562,20 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>3.324994508840259</v>
+        <v>-1.1837743949701598</v>
       </c>
       <c r="H34" s="1">
-        <v>2.6583521338705598</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.3061211332798448</v>
+      </c>
+      <c r="J34" s="1">
+        <v>34</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5080,18 +3593,20 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>3.6566192911178508</v>
+        <v>-1.2777892944034999</v>
       </c>
       <c r="H35" s="1">
-        <v>2.8853405924769802</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.27865263898490183</v>
+      </c>
+      <c r="J35" s="1">
+        <v>35</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5109,18 +3624,20 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>4.0213808652593084</v>
+        <v>-1.3717888879305598</v>
       </c>
       <c r="H36" s="1">
-        <v>3.1330924689093398</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.25365279702383292</v>
+      </c>
+      <c r="J36" s="1">
+        <v>36</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5138,18 +3655,20 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>4.4225964743378512</v>
+        <v>-1.4657731755513401</v>
       </c>
       <c r="H37" s="1">
-        <v>3.4036186090388201</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.23089939667533141</v>
+      </c>
+      <c r="J37" s="1">
+        <v>37</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5167,18 +3686,20 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
-        <v>4.8639160542631119</v>
+        <v>-1.5597421572658401</v>
       </c>
       <c r="H38" s="1">
-        <v>3.6991344451216102</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.21019026024573431</v>
+      </c>
+      <c r="J38" s="1">
+        <v>38</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -5196,18 +3717,20 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
-        <v>5.3493556613606961</v>
+        <v>-1.6536958330740601</v>
       </c>
       <c r="H39" s="1">
-        <v>4.0220817398060698</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.1913414342245876</v>
+      </c>
+      <c r="J39" s="1">
+        <v>39</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -5225,18 +3748,20 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
-        <v>5.8833342647404043</v>
+        <v>-1.7476342029759999</v>
       </c>
       <c r="H40" s="1">
-        <v>4.3751527338412197</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.17418554401843117</v>
+      </c>
+      <c r="J40" s="1">
+        <v>40</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5254,18 +3779,20 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
-        <v>6.4707142427642861</v>
+        <v>-1.84155726697166</v>
       </c>
       <c r="H41" s="1">
-        <v>4.7613169729052496</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.15857029744731224</v>
+      </c>
+      <c r="J41" s="1">
+        <v>41</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5283,18 +3810,20 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>7.1168459572042364</v>
+        <v>-1.9354650250610399</v>
       </c>
       <c r="H42" s="1">
-        <v>5.1838511215895098</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.14435712353244823</v>
+      </c>
+      <c r="J42" s="1">
+        <v>42</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -5312,18 +3841,20 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>7.8276168164264481</v>
+        <v>-2.0293574772441398</v>
       </c>
       <c r="H43" s="1">
-        <v>5.6463721091732202</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.13141993432527316</v>
+      </c>
+      <c r="J43" s="1">
+        <v>43</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -5341,18 +3872,20 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
-        <v>8.6095052805087562</v>
+        <v>-2.1232346235209603</v>
       </c>
       <c r="H44" s="1">
-        <v>6.1528739929070602</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.11964399863894003</v>
+      </c>
+      <c r="J44" s="1">
+        <v>44</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -5370,18 +3903,20 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
-        <v>9.4696403069737283</v>
+        <v>-2.2170964638914996</v>
       </c>
       <c r="H45" s="1">
-        <v>6.7077689706554198</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.10892491755329702</v>
+      </c>
+      <c r="J45" s="1">
+        <v>45</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -5399,18 +3934,20 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
-        <v>10.415866786232591</v>
+        <v>-2.3109429983557601</v>
       </c>
       <c r="H46" s="1">
-        <v>7.3159330265645401</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>9.9167692482595216E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>46</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -5428,18 +3965,20 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
-        <v>11.456817571352362</v>
+        <v>-2.4047742269137395</v>
       </c>
       <c r="H47" s="1">
-        <v>7.9827567516498297</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>9.0285877430057587E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>47</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -5457,18 +3996,20 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
-        <v>12.601992767899477</v>
+        <v>-2.4985901495654401</v>
       </c>
       <c r="H48" s="1">
-        <v>8.7142019466431098</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>8.2200807812514376E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>48</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -5486,17 +4027,20 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
-        <v>13.861847016947559</v>
+        <v>-2.5923907663108605</v>
       </c>
       <c r="H49" s="1">
-        <v>9.5168646880327898</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>7.4840898928500238E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>49</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -5514,18 +4058,20 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
-        <v>15.24788557849428</v>
+        <v>-2.6861760771499998</v>
       </c>
       <c r="H50" s="1">
-        <v>10.398045621007601</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>6.814100777074969E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>50</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -5543,18 +4089,20 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
-        <v>16.772770104204177</v>
+        <v>-2.7799460820828603</v>
       </c>
       <c r="H51" s="1">
-        <v>11.365828336157399</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>6.2041852454637537E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>51</v>
+      </c>
+      <c r="K51" s="1">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -5572,18 +4120,20 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
-        <v>18.450435078344054</v>
+        <v>-2.8737007811094397</v>
       </c>
       <c r="H52" s="1">
-        <v>12.429166791625001</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>5.648948405294809E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>52</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -5601,18 +4151,20 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
-        <v>20.296216004846311</v>
+        <v>-2.9674401742297403</v>
       </c>
       <c r="H53" s="1">
-        <v>13.597982860456399</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>5.1434806099128753E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>53</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -5630,18 +4182,20 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
-        <v>22.326990527547643</v>
+        <v>-3.0611642614437597</v>
       </c>
       <c r="H54" s="1">
-        <v>14.883275215865201</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.6833137450173798E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>54</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -5659,18 +4213,20 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
-        <v>24.561333790828431</v>
+        <v>-3.1548730427514999</v>
       </c>
       <c r="H55" s="1">
-        <v>16.297240916957499</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.2643814590363933E-2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>55</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -5688,18 +4244,20 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
-        <v>27.019689480243265</v>
+        <v>-3.2485665181529604</v>
       </c>
       <c r="H56" s="1">
-        <v>17.8534112263475</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.8829829811806833E-2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>56</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -5717,18 +4275,20 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
-        <v>29.72455812852661</v>
+        <v>-3.3422446876481402</v>
       </c>
       <c r="H57" s="1">
-        <v>19.566803381518699</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.535750203028E-2</v>
+      </c>
+      <c r="J57" s="1">
+        <v>57</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -5746,18 +4306,20 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
-        <v>32.700704432941357</v>
+        <v>-3.4359075512370403</v>
       </c>
       <c r="H58" s="1">
-        <v>21.454090256583498</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.2196177288200289E-2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>58</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -5775,18 +4337,20 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
-        <v>35.975385506816558</v>
+        <v>-3.5295551089196597</v>
       </c>
       <c r="H59" s="1">
-        <v>23.533790093453899</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.931795626328302E-2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>59</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -5804,18 +4368,20 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
-        <v>39.578602182952203</v>
+        <v>-3.6231873606960003</v>
       </c>
       <c r="H60" s="1">
-        <v>25.826478755011099</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.6697446344021075E-2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>60</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -5833,18 +4399,20 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
-        <v>43.543375701173055</v>
+        <v>-3.7168043065660599</v>
       </c>
       <c r="H61" s="1">
-        <v>28.355027261756899</v>
-      </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.4311536053706943E-2</v>
+      </c>
+      <c r="J61" s="1">
+        <v>61</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -5862,18 +4430,20 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
-        <v>47.906052348709153</v>
+        <v>-3.8104059465298401</v>
       </c>
       <c r="H62" s="1">
-        <v>31.144867722351599</v>
-      </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.2139189805328346E-2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>62</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -5891,18 +4461,20 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
-        <v>52.706638882475069</v>
+        <v>-3.9039922805873397</v>
       </c>
       <c r="H63" s="1">
-        <v>34.224291162697597</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2.0161261152108645E-2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>63</v>
+      </c>
+      <c r="K63" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -5920,18 +4492,20 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
-        <v>57.98917184916295</v>
+        <v>-3.9975633087385596</v>
       </c>
       <c r="H64" s="1">
-        <v>37.624781203873901</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.8360322864379424E-2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>64</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -5949,18 +4523,20 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
-        <v>63.802124235037915</v>
+        <v>-4.091119030983501</v>
       </c>
       <c r="H65" s="1">
-        <v>41.3813880431371</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.6720512314368288E-2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>65</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -5977,17 +4553,15 @@
         <v>73</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G121" si="1">EXP((-2.0218392) + (0.0945429532)*D66+ (0.00000765295314)*(D66^2))</f>
-        <v>70.198853225401308</v>
+        <f t="shared" ref="G66:G121" si="2" xml:space="preserve"> 2.0218392  -(D66*0.0945429532 )+(D66*D66*0.00000765295314)</f>
+        <v>-4.1846594473221606</v>
       </c>
       <c r="H66" s="1">
-        <v>45.5331477621936</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H66:H121" si="3">EXP(G66)</f>
+        <v>1.5227390787718158E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -6004,17 +4578,15 @@
         <v>138</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="1"/>
-        <v>77.238093237128453</v>
+        <f t="shared" si="2"/>
+        <v>-4.2781845577545399</v>
       </c>
       <c r="H67" s="1">
-        <v>50.123552631922202</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.3867815465365812E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -6031,17 +4603,15 @@
         <v>190</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
-        <v>84.98449881009283</v>
+        <f t="shared" si="2"/>
+        <v>-4.371694362280639</v>
       </c>
       <c r="H68" s="1">
-        <v>55.201078812788197</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2629822932924025E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -6061,17 +4631,15 @@
         <v>103</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="1"/>
-        <v>93.509242408630755</v>
+        <f t="shared" si="2"/>
+        <v>-4.4651888609004606</v>
       </c>
       <c r="H69" s="1">
-        <v>60.819778676881803</v>
-      </c>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1502523177954121E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -6091,17 +4659,15 @@
         <v>410</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="1"/>
-        <v>102.89067269684219</v>
+        <f t="shared" si="2"/>
+        <v>-4.5586680536140003</v>
       </c>
       <c r="H70" s="1">
-        <v>67.039945913938297</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0476003129419173E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -6118,17 +4684,15 @@
         <v>286</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="1"/>
-        <v>113.21503941629082</v>
+        <f t="shared" si="2"/>
+        <v>-4.6521319404212598</v>
       </c>
       <c r="H71" s="1">
-        <v>73.9288626448038</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>9.5412388790149082E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -6145,17 +4709,15 @@
         <v>372</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="1"/>
-        <v>124.57729161685694</v>
+        <f t="shared" si="2"/>
+        <v>-4.7455805213222391</v>
       </c>
       <c r="H72" s="1">
-        <v>81.561638968635606</v>
-      </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>8.6900158017591371E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -6172,17 +4734,15 @@
         <v>497</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="1"/>
-        <v>137.08195667697609</v>
+        <f t="shared" si="2"/>
+        <v>-4.8390137963169408</v>
       </c>
       <c r="H73" s="1">
-        <v>90.022156734068105</v>
-      </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>7.9148558638769389E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -6199,17 +4759,15 @@
         <v>595</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="1"/>
-        <v>150.84410830469457</v>
+        <f t="shared" si="2"/>
+        <v>-4.9324317654053598</v>
       </c>
       <c r="H74" s="1">
-        <v>99.4041308717796</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>7.2089514702879534E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -6226,17 +4784,15 @@
         <v>785</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="1"/>
-        <v>165.99043254301088</v>
+        <f t="shared" si="2"/>
+        <v>-5.0258344285874994</v>
       </c>
       <c r="H75" s="1">
-        <v>109.812303381609</v>
-      </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>6.5661052624595897E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -6253,17 +4809,15 @@
         <v>838</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="1"/>
-        <v>182.66040171966765</v>
+        <f t="shared" si="2"/>
+        <v>-5.1192217858633606</v>
       </c>
       <c r="H76" s="1">
-        <v>121.363787060402</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5.980675330564479E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -6280,17 +4834,15 @@
         <v>924</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="1"/>
-        <v>201.0075672915489</v>
+        <f t="shared" si="2"/>
+        <v>-5.2125938372329399</v>
       </c>
       <c r="H77" s="1">
-        <v>134.189578320008</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5.4475253522476598E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -6307,17 +4859,15 @@
         <v>1210</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="1"/>
-        <v>221.20098364664133</v>
+        <f t="shared" si="2"/>
+        <v>-5.3059505826962399</v>
       </c>
       <c r="H78" s="1">
-        <v>148.43626101584599</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.9619792143063566E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -6334,17 +4884,15 @@
         <v>1097</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="1"/>
-        <v>243.42677615259095</v>
+        <f t="shared" si="2"/>
+        <v>-5.3992920222532597</v>
       </c>
       <c r="H79" s="1">
-        <v>164.267926128146</v>
-      </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.5197797136071194E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -6361,17 +4909,15 @@
         <v>1404</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="1"/>
-        <v>267.88986809182069</v>
+        <f t="shared" si="2"/>
+        <v>-5.4926181559040002</v>
       </c>
       <c r="H80" s="1">
-        <v>181.86833545928101</v>
-      </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.1170509699709609E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -6388,17 +4934,15 @@
         <v>1861</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="1"/>
-        <v>294.81588261166814</v>
+        <f t="shared" si="2"/>
+        <v>-5.5859289836484596</v>
       </c>
       <c r="H81" s="1">
-        <v>201.443361287698</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3.7502642168752297E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -6415,17 +4959,15 @@
         <v>1617</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="1"/>
-        <v>324.45323745812578</v>
+        <f t="shared" si="2"/>
+        <v>-5.6792245054866397</v>
       </c>
       <c r="H82" s="1">
-        <v>223.22373821580101</v>
-      </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3.4162066659476288E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -6442,17 +4984,15 @@
         <v>1847</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="1"/>
-        <v>357.07545206893712</v>
+        <f t="shared" si="2"/>
+        <v>-5.7725047214185405</v>
       </c>
       <c r="H83" s="1">
-        <v>247.46816833903199</v>
-      </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3.1119531686344465E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -6469,17 +5009,15 @@
         <v>1559</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="1"/>
-        <v>392.98368859313621</v>
+        <f t="shared" si="2"/>
+        <v>-5.8657696314441603</v>
       </c>
       <c r="H84" s="1">
-        <v>274.466826430335</v>
-      </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.8348404233569692E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -6496,17 +5034,15 @@
         <v>3838</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="1"/>
-        <v>432.50955059837275</v>
+        <f t="shared" si="2"/>
+        <v>-5.9590192355634999</v>
       </c>
       <c r="H85" s="1">
-        <v>304.54531817394002</v>
-      </c>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.5824434991516092E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -6523,17 +5059,15 @@
         <v>2446</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="1"/>
-        <v>476.01816564522125</v>
+        <f t="shared" si="2"/>
+        <v>-6.0522535337765593</v>
       </c>
       <c r="H86" s="1">
-        <v>338.06915170518801</v>
-      </c>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.3525544674235762E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -6550,17 +5084,15 @@
         <v>2931</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="1"/>
-        <v>523.91158057206167</v>
+        <f t="shared" si="2"/>
+        <v>-6.1454725260833385</v>
       </c>
       <c r="H87" s="1">
-        <v>375.448790944569</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.1431629522160414E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -6577,17 +5109,15 @@
         <v>3922</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="1"/>
-        <v>576.63250127010417</v>
+        <f t="shared" si="2"/>
+        <v>-6.2386762124838402</v>
       </c>
       <c r="H88" s="1">
-        <v>417.14536859882799</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.9524384264751763E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -6604,17 +5134,15 @@
         <v>3809</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="1"/>
-        <v>634.66841196351902</v>
+        <f t="shared" si="2"/>
+        <v>-6.3318645929780599</v>
       </c>
       <c r="H89" s="1">
-        <v>463.67714740511798</v>
-      </c>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.7787140973290914E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -6631,17 +5159,15 @@
         <v>4611</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="1"/>
-        <v>698.55611257500607</v>
+        <f t="shared" si="2"/>
+        <v>-6.4250376675659995</v>
       </c>
       <c r="H90" s="1">
-        <v>515.62683040552304</v>
-      </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.6204722375347345E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -6658,17 +5184,15 @@
         <v>2599</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="1"/>
-        <v>768.88671668615302</v>
+        <f t="shared" si="2"/>
+        <v>-6.5181954362476606</v>
       </c>
       <c r="H91" s="1">
-        <v>573.64983497645505</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.4763308331081485E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -6688,17 +5212,15 @@
         <v>4376</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="1"/>
-        <v>846.31115693183267</v>
+        <f t="shared" si="2"/>
+        <v>-6.6113378990230398</v>
       </c>
       <c r="H92" s="1">
-        <v>638.48366124998302</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.3450314288548175E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -6718,17 +5240,15 @@
         <v>7578</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="1"/>
-        <v>931.54624943959595</v>
+        <f t="shared" si="2"/>
+        <v>-6.7044650558921397</v>
       </c>
       <c r="H93" s="1">
-        <v>710.958503738883</v>
-      </c>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2254280641632814E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -6748,17 +5268,15 @@
         <v>4861</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="1"/>
-        <v>1025.3813741836491</v>
+        <f t="shared" si="2"/>
+        <v>-6.7975769068549585</v>
       </c>
       <c r="H94" s="1">
-        <v>792.00927574313198</v>
-      </c>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1164772011119728E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -6775,17 +5293,15 @@
         <v>2116</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="1"/>
-        <v>1128.685833918453</v>
+        <f t="shared" si="2"/>
+        <v>-6.8906734519114998</v>
       </c>
       <c r="H95" s="1">
-        <v>882.68923985076799</v>
-      </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0172285557527062E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -6802,17 +5318,15 @@
         <v>5233</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="1"/>
-        <v>1242.4169607440433</v>
+        <f t="shared" si="2"/>
+        <v>-6.9837546910617601</v>
       </c>
       <c r="H96" s="1">
-        <v>984.18546498511296</v>
-      </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>9.2681675145367599E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -6829,17 +5343,15 @@
         <v>4267</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="1"/>
-        <v>1367.6290463943878</v>
+        <f t="shared" si="2"/>
+        <v>-7.0768206243057392</v>
       </c>
       <c r="H97" s="1">
-        <v>1097.83636149268</v>
-      </c>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>8.4445372048144967E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -6856,17 +5368,15 @@
         <v>1873</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="1"/>
-        <v>1505.4831800981078</v>
+        <f t="shared" si="2"/>
+        <v>-7.1698712516434409</v>
       </c>
       <c r="H98" s="1">
-        <v>1225.15158128605</v>
-      </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>7.6942178664088389E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -6883,17 +5393,15 @@
         <v>3912</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="1"/>
-        <v>1657.2580864114097</v>
+        <f t="shared" si="2"/>
+        <v>-7.2629065730748597</v>
       </c>
       <c r="H99" s="1">
-        <v>1367.83461071434</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>7.0106736783313211E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -6910,17 +5418,15 @@
         <v>3777</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="1"/>
-        <v>1824.3620648469443</v>
+        <f t="shared" si="2"/>
+        <v>-7.3559265885999991</v>
       </c>
       <c r="H100" s="1">
-        <v>1527.8084303912301</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>6.3879524288907219E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -6937,17 +5443,15 @@
         <v>3881</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="1"/>
-        <v>2008.3461435090596</v>
+        <f t="shared" si="2"/>
+        <v>-7.4489312982188594</v>
       </c>
       <c r="H101" s="1">
-        <v>1707.2446695415399</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5.8206333203771532E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -6964,17 +5468,15 @@
         <v>4286</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="1"/>
-        <v>2210.918570394108</v>
+        <f t="shared" si="2"/>
+        <v>-7.5419207019314403</v>
       </c>
       <c r="H102" s="1">
-        <v>1908.59674354141</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5.3037794492085007E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -6991,17 +5493,15 @@
         <v>4342</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="1"/>
-        <v>2433.9607786326005</v>
+        <f t="shared" si="2"/>
+        <v>-7.6348947997377401</v>
       </c>
       <c r="H103" s="1">
-        <v>2134.63753338384</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.8328945420723533E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -7018,17 +5518,15 @@
         <v>3114</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="1"/>
-        <v>2679.5449758582026</v>
+        <f t="shared" si="2"/>
+        <v>-7.7278535916377589</v>
       </c>
       <c r="H104" s="1">
-        <v>2388.5022461410199</v>
-      </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.403883566288244E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -7045,17 +5543,15 @@
         <v>1613</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="1"/>
-        <v>2949.9535232182952</v>
+        <f t="shared" si="2"/>
+        <v>-7.8207970776315001</v>
       </c>
       <c r="H105" s="1">
-        <v>2673.7371876586299</v>
-      </c>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.0130168669148369E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -7072,17 +5568,15 @@
         <v>2673</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="1"/>
-        <v>3247.7002864385686</v>
+        <f t="shared" si="2"/>
+        <v>-7.9137252577189603</v>
       </c>
       <c r="H106" s="1">
-        <v>2994.3552844862202</v>
-      </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3.6568975143401331E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -7099,17 +5593,15 @@
         <v>5497</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="1"/>
-        <v>3575.5541599796834</v>
+        <f t="shared" si="2"/>
+        <v>-8.0066381319001394</v>
       </c>
       <c r="H107" s="1">
-        <v>3354.8993134734801</v>
-      </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3.3324315744977104E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -7126,17 +5618,15 @@
         <v>2633</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="1"/>
-        <v>3936.5649858547249</v>
+        <f t="shared" si="2"/>
+        <v>-8.0995357001750392</v>
       </c>
       <c r="H108" s="1">
-        <v>3760.5139369148601</v>
-      </c>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3.036801039702324E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -7156,17 +5646,15 @@
         <v>2641</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="1"/>
-        <v>4334.0921113076138</v>
+        <f t="shared" si="2"/>
+        <v>-8.1924179625436597</v>
       </c>
       <c r="H109" s="1">
-        <v>4217.0278013399102</v>
-      </c>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.7674391816229747E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -7186,17 +5674,15 @@
         <v>405</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="1"/>
-        <v>4771.8358544991697</v>
+        <f t="shared" si="2"/>
+        <v>-8.2852849190059992</v>
       </c>
       <c r="H110" s="1">
-        <v>4731.0471421821903</v>
-      </c>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.5220081093210809E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -7216,17 +5702,15 @@
         <v>2569</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="1"/>
-        <v>5253.8721748477155</v>
+        <f t="shared" si="2"/>
+        <v>-8.3781365695620593</v>
       </c>
       <c r="H111" s="1">
-        <v>5310.0625482670102</v>
-      </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.298378334765857E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -7246,17 +5730,15 @@
         <v>785</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="1"/>
-        <v>5784.6908749852582</v>
+        <f t="shared" si="2"/>
+        <v>-8.4709729142118402</v>
       </c>
       <c r="H112" s="1">
-        <v>5962.5707835553203</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2.0946101659718815E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -7273,17 +5755,15 @@
         <v>2051</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="1"/>
-        <v>6369.237694708353</v>
+        <f t="shared" si="2"/>
+        <v>-8.56379395295534</v>
       </c>
       <c r="H113" s="1">
-        <v>6698.2138437446001</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.9089367640426106E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -7300,17 +5780,15 @@
         <v>2667</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="1"/>
-        <v>7012.9606941423644</v>
+        <f t="shared" si="2"/>
+        <v>-8.6565996857925605</v>
       </c>
       <c r="H114" s="1">
-        <v>7527.9377478004599</v>
-      </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.7397487150921061E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -7327,17 +5805,15 @@
         <v>1827</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="1"/>
-        <v>7721.8613639492969</v>
+        <f t="shared" si="2"/>
+        <v>-8.7493901127234999</v>
       </c>
       <c r="H115" s="1">
-        <v>8464.1739358004197</v>
-      </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.5855799813858343E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -7354,17 +5830,15 @@
         <v>1653</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="1"/>
-        <v>8502.5509451812195</v>
+        <f t="shared" si="2"/>
+        <v>-8.84216523374816</v>
       </c>
       <c r="H116" s="1">
-        <v>9521.0465721688797</v>
-      </c>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.4450951082087596E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -7381,17 +5855,15 @@
         <v>1773</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="1"/>
-        <v>9362.31249073873</v>
+        <f t="shared" si="2"/>
+        <v>-8.934925048866539</v>
       </c>
       <c r="H117" s="1">
-        <v>10714.6095462175</v>
-      </c>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.3170775740435208E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -7408,17 +5880,15 @@
         <v>1537</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="1"/>
-        <v>10309.169254808881</v>
+        <f t="shared" si="2"/>
+        <v>-9.0276695580786388</v>
       </c>
       <c r="H118" s="1">
-        <v>12063.1175300097</v>
-      </c>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2004191817211431E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -7435,17 +5905,15 @@
         <v>461</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="1"/>
-        <v>11351.960056646763</v>
+        <f t="shared" si="2"/>
+        <v>-9.1203987613844593</v>
       </c>
       <c r="H119" s="1">
-        <v>13587.3361086804</v>
-      </c>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0941103973813939E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -7462,17 +5930,15 @@
         <v>1195</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="1"/>
-        <v>12500.422331204478</v>
+        <f t="shared" si="2"/>
+        <v>-9.2131126587840004</v>
       </c>
       <c r="H120" s="1">
-        <v>15310.8967540718</v>
-      </c>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>9.9723155243061184E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -7489,1167 +5955,19 @@
         <v>1065</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="1"/>
-        <v>13765.283652028676</v>
+        <f t="shared" si="2"/>
+        <v>-9.3058112502772588</v>
       </c>
       <c r="H121" s="1">
-        <v>17260.703284671599</v>
-      </c>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G250" s="1"/>
-    </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G251" s="1"/>
-    </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G253" s="1"/>
-    </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G259" s="1"/>
-    </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G260" s="1"/>
-    </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G261" s="1"/>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G262" s="1"/>
-    </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G263" s="1"/>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G264" s="1"/>
-    </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G265" s="1"/>
-    </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G266" s="1"/>
-    </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G267" s="1"/>
-    </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G268" s="1"/>
-    </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G269" s="1"/>
-    </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G270" s="1"/>
-    </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G272" s="1"/>
-    </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G273" s="1"/>
-    </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G274" s="1"/>
-    </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G275" s="1"/>
-    </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G276" s="1"/>
-    </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G277" s="1"/>
-    </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G278" s="1"/>
-    </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G280" s="1"/>
-    </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G281" s="1"/>
-    </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G282" s="1"/>
-    </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G284" s="1"/>
-    </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G285" s="1"/>
-    </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G286" s="1"/>
-    </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G287" s="1"/>
-    </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G288" s="1"/>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G290" s="1"/>
-    </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G291" s="1"/>
-    </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G292" s="1"/>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G293" s="1"/>
-    </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G294" s="1"/>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G296" s="1"/>
-    </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G297" s="1"/>
-    </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G298" s="1"/>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G299" s="1"/>
-    </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G300" s="1"/>
-    </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G301" s="1"/>
-    </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G302" s="1"/>
-    </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G303" s="1"/>
-    </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G304" s="1"/>
-    </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G305" s="1"/>
-    </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G306" s="1"/>
-    </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G307" s="1"/>
-    </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G308" s="1"/>
-    </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G309" s="1"/>
-    </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G310" s="1"/>
-    </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G311" s="1"/>
-    </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G312" s="1"/>
-    </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G313" s="1"/>
-    </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G314" s="1"/>
-    </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G315" s="1"/>
-    </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G316" s="1"/>
-    </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G317" s="1"/>
-    </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G318" s="1"/>
-    </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G319" s="1"/>
-    </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G320" s="1"/>
-    </row>
-    <row r="321" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G321" s="1"/>
-    </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G322" s="1"/>
-    </row>
-    <row r="323" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G323" s="1"/>
-    </row>
-    <row r="324" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G324" s="1"/>
-    </row>
-    <row r="325" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G325" s="1"/>
-    </row>
-    <row r="326" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G326" s="1"/>
-    </row>
-    <row r="327" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G327" s="1"/>
-    </row>
-    <row r="328" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G328" s="1"/>
-    </row>
-    <row r="329" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G329" s="1"/>
-    </row>
-    <row r="330" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G330" s="1"/>
-    </row>
-    <row r="331" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G331" s="1"/>
-    </row>
-    <row r="332" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G332" s="1"/>
-    </row>
-    <row r="333" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G333" s="1"/>
-    </row>
-    <row r="334" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G334" s="1"/>
-    </row>
-    <row r="335" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G335" s="1"/>
-    </row>
-    <row r="336" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G336" s="1"/>
-    </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G337" s="1"/>
-    </row>
-    <row r="338" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G338" s="1"/>
-    </row>
-    <row r="339" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G339" s="1"/>
-    </row>
-    <row r="340" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G340" s="1"/>
-    </row>
-    <row r="341" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G341" s="1"/>
-    </row>
-    <row r="342" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G342" s="1"/>
-    </row>
-    <row r="343" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G343" s="1"/>
-    </row>
-    <row r="344" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G344" s="1"/>
-    </row>
-    <row r="345" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G345" s="1"/>
-    </row>
-    <row r="346" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G346" s="1"/>
-    </row>
-    <row r="347" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G347" s="1"/>
-    </row>
-    <row r="348" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G348" s="1"/>
-    </row>
-    <row r="349" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G349" s="1"/>
-    </row>
-    <row r="350" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G350" s="1"/>
-    </row>
-    <row r="351" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G351" s="1"/>
-    </row>
-    <row r="352" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G352" s="1"/>
-    </row>
-    <row r="353" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G353" s="1"/>
-    </row>
-    <row r="354" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G354" s="1"/>
-    </row>
-    <row r="355" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G355" s="1"/>
-    </row>
-    <row r="356" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G356" s="1"/>
-    </row>
-    <row r="357" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G357" s="1"/>
-    </row>
-    <row r="358" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G358" s="1"/>
-    </row>
-    <row r="359" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G359" s="1"/>
-    </row>
-    <row r="360" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G360" s="1"/>
-    </row>
-    <row r="361" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G361" s="1"/>
-    </row>
-    <row r="362" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G362" s="1"/>
-    </row>
-    <row r="363" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G363" s="1"/>
-    </row>
-    <row r="364" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G364" s="1"/>
-    </row>
-    <row r="365" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G365" s="1"/>
-    </row>
-    <row r="366" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G366" s="1"/>
-    </row>
-    <row r="367" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G367" s="1"/>
-    </row>
-    <row r="368" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G368" s="1"/>
-    </row>
-    <row r="369" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G369" s="1"/>
-    </row>
-    <row r="370" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G370" s="1"/>
-    </row>
-    <row r="371" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G371" s="1"/>
-    </row>
-    <row r="372" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G372" s="1"/>
-    </row>
-    <row r="373" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G373" s="1"/>
-    </row>
-    <row r="374" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G374" s="1"/>
-    </row>
-    <row r="375" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G375" s="1"/>
-    </row>
-    <row r="376" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G376" s="1"/>
-    </row>
-    <row r="377" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G377" s="1"/>
-    </row>
-    <row r="378" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G378" s="1"/>
-    </row>
-    <row r="379" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G379" s="1"/>
-    </row>
-    <row r="380" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G380" s="1"/>
-    </row>
-    <row r="381" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G381" s="1"/>
-    </row>
-    <row r="382" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G382" s="1"/>
-    </row>
-    <row r="383" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G383" s="1"/>
-    </row>
-    <row r="384" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G384" s="1"/>
-    </row>
-    <row r="385" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G385" s="1"/>
-    </row>
-    <row r="386" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G386" s="1"/>
-    </row>
-    <row r="387" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G387" s="1"/>
-    </row>
-    <row r="388" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G388" s="1"/>
-    </row>
-    <row r="389" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G389" s="1"/>
-    </row>
-    <row r="390" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G390" s="1"/>
-    </row>
-    <row r="391" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G391" s="1"/>
-    </row>
-    <row r="392" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G392" s="1"/>
-    </row>
-    <row r="393" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G393" s="1"/>
-    </row>
-    <row r="394" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G394" s="1"/>
-    </row>
-    <row r="395" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G395" s="1"/>
-    </row>
-    <row r="396" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G396" s="1"/>
-    </row>
-    <row r="397" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G397" s="1"/>
-    </row>
-    <row r="398" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G398" s="1"/>
-    </row>
-    <row r="399" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G399" s="1"/>
-    </row>
-    <row r="400" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G400" s="1"/>
-    </row>
-    <row r="401" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G401" s="1"/>
-    </row>
-    <row r="402" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G402" s="1"/>
-    </row>
-    <row r="403" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G403" s="1"/>
-    </row>
-    <row r="404" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G404" s="1"/>
-    </row>
-    <row r="405" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G405" s="1"/>
-    </row>
-    <row r="406" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G406" s="1"/>
-    </row>
-    <row r="407" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G407" s="1"/>
-    </row>
-    <row r="408" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G408" s="1"/>
-    </row>
-    <row r="409" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G409" s="1"/>
-    </row>
-    <row r="410" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G410" s="1"/>
-    </row>
-    <row r="411" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G411" s="1"/>
-    </row>
-    <row r="412" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G412" s="1"/>
-    </row>
-    <row r="413" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G413" s="1"/>
-    </row>
-    <row r="414" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G414" s="1"/>
-    </row>
-    <row r="415" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G415" s="1"/>
-    </row>
-    <row r="416" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G416" s="1"/>
-    </row>
-    <row r="417" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G417" s="1"/>
-    </row>
-    <row r="418" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G418" s="1"/>
-    </row>
-    <row r="419" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G419" s="1"/>
-    </row>
-    <row r="420" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G420" s="1"/>
-    </row>
-    <row r="421" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G421" s="1"/>
-    </row>
-    <row r="422" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G422" s="1"/>
-    </row>
-    <row r="423" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G423" s="1"/>
-    </row>
-    <row r="424" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G424" s="1"/>
-    </row>
-    <row r="425" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G425" s="1"/>
-    </row>
-    <row r="426" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G426" s="1"/>
-    </row>
-    <row r="427" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G427" s="1"/>
-    </row>
-    <row r="428" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G428" s="1"/>
-    </row>
-    <row r="429" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G429" s="1"/>
-    </row>
-    <row r="430" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G430" s="1"/>
-    </row>
-    <row r="431" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G431" s="1"/>
-    </row>
-    <row r="432" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G432" s="1"/>
-    </row>
-    <row r="433" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G433" s="1"/>
-    </row>
-    <row r="434" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G434" s="1"/>
-    </row>
-    <row r="435" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G435" s="1"/>
-    </row>
-    <row r="436" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G436" s="1"/>
-    </row>
-    <row r="437" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G437" s="1"/>
-    </row>
-    <row r="438" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G438" s="1"/>
-    </row>
-    <row r="439" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G439" s="1"/>
-    </row>
-    <row r="440" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G440" s="1"/>
-    </row>
-    <row r="441" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G441" s="1"/>
-    </row>
-    <row r="442" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G442" s="1"/>
-    </row>
-    <row r="443" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G443" s="1"/>
-    </row>
-    <row r="444" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G444" s="1"/>
-    </row>
-    <row r="445" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G445" s="1"/>
-    </row>
-    <row r="446" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G446" s="1"/>
-    </row>
-    <row r="447" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G447" s="1"/>
-    </row>
-    <row r="448" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G448" s="1"/>
-    </row>
-    <row r="449" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G449" s="1"/>
-    </row>
-    <row r="450" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G450" s="1"/>
-    </row>
-    <row r="451" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G451" s="1"/>
-    </row>
-    <row r="452" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G452" s="1"/>
-    </row>
-    <row r="453" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G453" s="1"/>
-    </row>
-    <row r="454" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G454" s="1"/>
-    </row>
-    <row r="455" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G455" s="1"/>
-    </row>
-    <row r="456" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G456" s="1"/>
-    </row>
-    <row r="457" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G457" s="1"/>
-    </row>
-    <row r="458" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G458" s="1"/>
-    </row>
-    <row r="459" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G459" s="1"/>
-    </row>
-    <row r="460" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G460" s="1"/>
-    </row>
-    <row r="461" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G461" s="1"/>
-    </row>
-    <row r="462" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G462" s="1"/>
-    </row>
-    <row r="463" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G463" s="1"/>
-    </row>
-    <row r="464" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G464" s="1"/>
-    </row>
-    <row r="465" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G465" s="1"/>
-    </row>
-    <row r="466" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G466" s="1"/>
-    </row>
-    <row r="467" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G467" s="1"/>
-    </row>
-    <row r="468" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G468" s="1"/>
-    </row>
-    <row r="469" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G469" s="1"/>
-    </row>
-    <row r="470" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G470" s="1"/>
-    </row>
-    <row r="471" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G471" s="1"/>
-    </row>
-    <row r="472" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G472" s="1"/>
-    </row>
-    <row r="473" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G473" s="1"/>
-    </row>
-    <row r="474" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G474" s="1"/>
-    </row>
-    <row r="475" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G475" s="1"/>
-    </row>
-    <row r="476" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G476" s="1"/>
-    </row>
-    <row r="477" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G477" s="1"/>
-    </row>
-    <row r="478" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G478" s="1"/>
-    </row>
-    <row r="479" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G479" s="1"/>
-    </row>
-    <row r="480" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G480" s="1"/>
-    </row>
-    <row r="481" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G481" s="1"/>
-    </row>
-    <row r="482" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G482" s="1"/>
-    </row>
-    <row r="483" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G484" s="1"/>
-    </row>
-    <row r="485" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G486" s="1"/>
-    </row>
-    <row r="487" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G487" s="1"/>
-    </row>
-    <row r="488" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G488" s="1"/>
-    </row>
-    <row r="489" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G489" s="1"/>
-    </row>
-    <row r="490" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G490" s="1"/>
-    </row>
-    <row r="491" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G491" s="1"/>
-    </row>
-    <row r="492" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G492" s="1"/>
-    </row>
-    <row r="493" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G493" s="1"/>
-    </row>
-    <row r="494" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G494" s="1"/>
-    </row>
-    <row r="495" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G495" s="1"/>
-    </row>
-    <row r="496" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G498" s="1"/>
-    </row>
-    <row r="499" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G499" s="1"/>
-    </row>
-    <row r="500" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G501" s="1"/>
-    </row>
-    <row r="502" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G503" s="1"/>
-    </row>
-    <row r="504" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G504" s="1"/>
-    </row>
-    <row r="505" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G505" s="1"/>
+        <f t="shared" si="3"/>
+        <v>9.0894483128596429E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="1">
+        <f>SUM(D1:D121)</f>
+        <v>7381</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
